--- a/data/trans_orig/Q70-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q70-Habitat-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>2.45926042349828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6.31690771964156</v>
+        <v>6.316907719641559</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.474358925433912</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4464055092193244</v>
+        <v>0.4521855692215137</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6444054223592174</v>
+        <v>0.6498658543742782</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7295679528559015</v>
+        <v>0.7049120559167995</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.677540663079106</v>
+        <v>3.856859734107494</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4255967993251428</v>
+        <v>0.4322097335284107</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4778936592762899</v>
+        <v>0.4485015641392361</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.127685049175047</v>
+        <v>1.211125212177335</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.547555140225153</v>
+        <v>5.394822003126744</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5179420939007964</v>
+        <v>0.5063332082942861</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.7355109645559555</v>
+        <v>0.6938227195902903</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.322217282457019</v>
+        <v>1.280764462769022</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>5.112692767993148</v>
+        <v>5.111485942349651</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.200724087540808</v>
+        <v>2.597751330549172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.46065754749119</v>
+        <v>2.931225027871199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.694801042261042</v>
+        <v>8.373304203557733</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.21233137842164</v>
+        <v>11.7108991559403</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.399828014481455</v>
+        <v>5.06629748361288</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.516980999049326</v>
+        <v>6.473466808798132</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.7024186957674</v>
+        <v>13.1418257482535</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.83211709745368</v>
+        <v>11.63976150216659</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.368387547361839</v>
+        <v>2.414050897833194</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.412259031188177</v>
+        <v>3.017211268864386</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7.249952169192488</v>
+        <v>7.111439505867629</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>10.0262821848376</v>
+        <v>10.04663891562946</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>2.716885986342794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7.922830007252956</v>
+        <v>7.922830007252957</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>2.317335431508135</v>
@@ -817,7 +817,7 @@
         <v>1.168766067798828</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>9.26135126711026</v>
+        <v>9.261351267110262</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>1.566123970779921</v>
@@ -829,7 +829,7 @@
         <v>2.087742819713737</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>8.477085284776782</v>
+        <v>8.477085284776784</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8074936741686055</v>
+        <v>0.8134480331301562</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.410439564448783</v>
+        <v>1.484414013357892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.567386264528528</v>
+        <v>1.48850113924875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.091795911867703</v>
+        <v>5.216076783181962</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.7454858891712385</v>
+        <v>0.7554225327295828</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.9153301524182911</v>
+        <v>0.9605859311571606</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3369451778419932</v>
+        <v>0.2880267826369013</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>6.648410714352804</v>
+        <v>6.760570365367244</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9894312770948498</v>
+        <v>0.9979000898990811</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.758793162469846</v>
+        <v>1.624397320027914</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.188049716436218</v>
+        <v>1.201332031355273</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.396290830971454</v>
+        <v>6.436020024384266</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.774622764782325</v>
+        <v>1.775456822703679</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.334066849496997</v>
+        <v>7.170900299305289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.623662811681609</v>
+        <v>5.806842751542083</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13.21554939180085</v>
+        <v>13.0606750638971</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>7.580559085029278</v>
+        <v>8.089241208423854</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>10.28110013881836</v>
+        <v>9.440595592544382</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.873925774818046</v>
+        <v>3.291503391261401</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>12.75735198546576</v>
+        <v>12.97128661026215</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>3.49909895984417</v>
+        <v>3.458486392432245</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6.230503700597335</v>
+        <v>6.145328480548982</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.737620469122884</v>
+        <v>3.821068731743099</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>11.59517256730443</v>
+        <v>11.82999355066709</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.8997656569471383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.648281694697255</v>
+        <v>4.648281694697256</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.791153890596123</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.048364402986515</v>
+        <v>0.9792824980084183</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3958506547866583</v>
+        <v>0.3489098771603422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6167114682710562</v>
+        <v>0.6300965254682666</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.02165019407661</v>
+        <v>2.941140999075654</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.577616083237769</v>
+        <v>1.502590487664852</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4204459892704697</v>
+        <v>0.4347537923519638</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.178182763653985</v>
+        <v>1.106314138332189</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.701679337088301</v>
+        <v>4.560923637334099</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.466572664926323</v>
+        <v>1.412108826733637</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.4707255193372833</v>
+        <v>0.4782972912077071</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.9648246218025726</v>
+        <v>0.9469857104670286</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>4.191058233369096</v>
+        <v>4.046726667672308</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.15374415219642</v>
+        <v>4.62917470948138</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.567832515832798</v>
+        <v>1.567193374634944</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.645542663348419</v>
+        <v>1.695313506234675</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.648862426162301</v>
+        <v>7.533901978127044</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.42031728591024</v>
+        <v>5.863961812645119</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.787484534728063</v>
+        <v>2.903503281579747</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.126164638837864</v>
+        <v>5.49025478034279</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.19482128274097</v>
+        <v>9.979516010210761</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.302279526097263</v>
+        <v>4.340145085213801</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.615269138817628</v>
+        <v>1.480684829969771</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>2.730043531787086</v>
+        <v>2.794214906049425</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>7.755306713363266</v>
+        <v>7.415879143267995</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>2.425586943480674</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.867201049838588</v>
+        <v>5.867201049838587</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>1.295594281039155</v>
@@ -1101,7 +1101,7 @@
         <v>2.103383708150832</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.365300180444252</v>
+        <v>7.365300180444254</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8248656502137229</v>
+        <v>0.8755434708557839</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7808115364081128</v>
+        <v>0.7795901882790827</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.251540064855237</v>
+        <v>1.246596041001502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.092434011830437</v>
+        <v>4.062039519838054</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8541177607255463</v>
+        <v>0.8580702401386452</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8222864495612102</v>
+        <v>0.8583975188851631</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.009741942565691</v>
+        <v>1.03893886452688</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>6.510965822719786</v>
+        <v>6.573593483111809</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9614643556425114</v>
+        <v>0.9516486285335926</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.9080976065109554</v>
+        <v>0.9160543248310024</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.30120459846393</v>
+        <v>1.348365511850052</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>5.715723985545234</v>
+        <v>5.80930746759108</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.320525977247977</v>
+        <v>2.596447609206873</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.805866100681464</v>
+        <v>1.742152005108215</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.202422331350069</v>
+        <v>5.46818969225112</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9.566765555130335</v>
+        <v>9.142996407089685</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.479719604144933</v>
+        <v>2.526321811798616</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.671103625008405</v>
+        <v>3.938657494338203</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.083602267437481</v>
+        <v>3.159095073747964</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>12.84566334167809</v>
+        <v>13.25083059773383</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.00822982001141</v>
+        <v>2.103068741745711</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.12626580415332</v>
+        <v>2.090266459389453</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4.023742519361947</v>
+        <v>4.030873377299525</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>9.654889895008743</v>
+        <v>9.898762358913139</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>2.064357554482883</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>8.407841448757594</v>
+        <v>8.407841448757596</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>1.586834695897134</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.039182866367314</v>
+        <v>1.073495766947301</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.089757011220464</v>
+        <v>1.130270591229313</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.460774079017817</v>
+        <v>1.461643016162406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.918645499930649</v>
+        <v>4.959869226991946</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.264242437486997</v>
+        <v>1.253148006605261</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.169724512886586</v>
+        <v>1.193183372664935</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.325910916411905</v>
+        <v>1.376142566030175</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>6.992740688088827</v>
+        <v>7.078467323191651</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.233963692765018</v>
+        <v>1.251356146672426</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.301034916828829</v>
+        <v>1.287654217428287</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.540010755899584</v>
+        <v>1.580503650728972</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>6.207476361749204</v>
+        <v>6.17768557410951</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.060191545927548</v>
+        <v>2.07446067338514</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.838412754659926</v>
+        <v>2.715960669430085</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.199624041775551</v>
+        <v>3.329863354473749</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.482202144191598</v>
+        <v>8.30618853984171</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.578348190448347</v>
+        <v>3.602105073217145</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.903194031539166</v>
+        <v>3.859570756546236</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.412439565881195</v>
+        <v>3.450633478241704</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>10.1288953102705</v>
+        <v>10.2531558393079</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.210487519790578</v>
+        <v>2.287788719087807</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.67053292084722</v>
+        <v>2.766123760773307</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.964174624020752</v>
+        <v>2.935894158104332</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>8.610018364240704</v>
+        <v>8.433254766105886</v>
       </c>
     </row>
     <row r="19">
